--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/67/word_level_predictions_67.xlsx
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G7" s="2" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1022,210 +1022,210 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G29" s="2" t="b">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G48" s="2" t="b">
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="I48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K48" s="2" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="I49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K49" s="2" t="b">
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="I50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K50" s="2" t="b">
@@ -3085,11 +3085,11 @@
         </is>
       </c>
       <c r="I51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K51" s="2" t="b">
@@ -3102,416 +3102,416 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>3</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
         <v>3</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>9</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>3</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>re-install</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>3</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>11</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G82" s="2" t="b">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G97" s="2" t="b">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5806,624 +5806,624 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" t="n">
         <v>7</v>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C113" s="2" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" t="n">
         <v>12</v>
       </c>
-      <c r="E113" s="2" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>7</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>13</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>7</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>14</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G134" s="2" t="b">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G136" s="2" t="b">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>13</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>8</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>13</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>9</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>13</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>13</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11838,626 +11838,626 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>14</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>14</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>14</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>2</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>14</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>3</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>14</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>4</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>14</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>5</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,733 +13809,733 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>16</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>14</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>16</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>15</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>16</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>16</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>16</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" t="n">
         <v>17</v>
       </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>16</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>18</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>16</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>19</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>16</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>20</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>16</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>21</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>16</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>22</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>16</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>23</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>16</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>24</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>16</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>25</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>16</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>26</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>16</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>27</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G304" s="2" t="b">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L304" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G305" s="2" t="b">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L305" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/67/word_level_predictions_67.xlsx
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G7" s="2" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -1022,210 +1022,210 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G29" s="2" t="b">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G48" s="2" t="b">
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="I48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K48" s="2" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="I49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K49" s="2" t="b">
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="I50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K50" s="2" t="b">
@@ -3085,11 +3085,11 @@
         </is>
       </c>
       <c r="I51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K51" s="2" t="b">
@@ -3102,416 +3102,416 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>re-install</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G82" s="2" t="b">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G97" s="2" t="b">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5806,624 +5806,624 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>4</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>nearby</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>display</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>5</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>manned</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>nearby</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>6</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>anti-collision</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>manned</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>warnings</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Fly</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>8</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>9</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>7</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>anti-collision</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>10</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>7</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>warnings</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>11</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>7</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Fly</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>12</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>7</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>13</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>7</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G134" s="2" t="b">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G136" s="2" t="b">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11838,626 +11838,626 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="inlineStr">
+      <c r="D220" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="n">
+    <row r="226">
+      <c r="A226" t="n">
         <v>14</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D222" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
+      <c r="D226" t="n">
+        <v>6</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
         <v>14</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>7</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>14</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>8</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>14</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D223" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
+      <c r="D229" t="n">
+        <v>9</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
         <v>14</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>10</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
         <v>14</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>5</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B226" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C226" s="2" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D226" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C227" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D227" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D228" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D229" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B230" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C230" s="2" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D230" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>11</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,757 +13785,757 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>authorization</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>fly</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>airspace</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>16</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Check</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>14</v>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>16</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>15</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>16</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>16</v>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>16</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>sure</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>17</v>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>16</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>18</v>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>16</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>19</v>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>16</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>20</v>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>16</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>proper</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>21</v>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>16</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>authorization</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>22</v>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>16</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>23</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>16</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>fly</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>24</v>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>16</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>25</v>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>16</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>26</v>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>16</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>airspace</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>27</v>
-      </c>
-      <c r="E271" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G304" s="2" t="b">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L304" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G305" s="2" t="b">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L305" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
